--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Khulna.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Khulna.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-29760" yWindow="-620" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="-6660" yWindow="-16060" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -32,13 +37,12 @@
     <sheet name="Interventions affected fraction" sheetId="23" r:id="rId23"/>
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
-    <sheet name="RR birth by type" sheetId="26" r:id="rId26"/>
-    <sheet name="birth distribution" sheetId="27" r:id="rId27"/>
-    <sheet name="time between births" sheetId="28" r:id="rId28"/>
-    <sheet name="RR birth by time" sheetId="29" r:id="rId29"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -263,7 +267,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="78">
   <si>
     <t>indicators</t>
   </si>
@@ -497,36 +501,6 @@
   </si>
   <si>
     <t>Interventions</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>&lt;18 years</t>
-  </si>
-  <si>
-    <t>18-34 years</t>
-  </si>
-  <si>
-    <t>35-49 years</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>second or third</t>
-  </si>
-  <si>
-    <t>greater than third</t>
-  </si>
-  <si>
-    <t>&lt;18 months</t>
-  </si>
-  <si>
-    <t>18-23 months</t>
-  </si>
-  <si>
-    <t>&lt;24 months</t>
   </si>
 </sst>
 </file>
@@ -744,6 +718,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1289,12 +1268,12 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1310,7 +1289,7 @@
         <v>1637110.041754826</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1318,7 +1297,7 @@
         <v>335747.21468471672</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1326,7 +1305,7 @@
         <v>385892.59300591057</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1334,21 +1313,16 @@
         <v>0.31900000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1358,13 +1332,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1381,7 +1355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1400,7 +1374,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1393,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1438,7 +1412,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1457,7 +1431,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1476,7 +1450,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1495,7 +1469,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1514,7 +1488,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1533,117 +1507,112 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1655,9 +1624,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1671,7 +1640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1687,11 +1656,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1703,9 +1667,9 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1725,7 +1689,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1745,7 +1709,7 @@
         <v>1.2232911392405064</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1767,11 +1731,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1781,12 +1740,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1806,7 +1765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1826,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1846,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1866,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1888,11 +1847,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1902,9 +1856,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1924,7 +1878,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1946,11 +1900,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1960,9 +1909,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1976,7 +1925,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1992,11 +1941,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2006,12 +1950,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2031,7 +1975,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2051,7 +1995,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2059,7 +2003,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2067,7 +2011,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2077,11 +2021,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2091,12 +2030,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2116,7 +2055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2136,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2156,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2176,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2198,11 +2137,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2212,13 +2146,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2238,7 +2172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14">
+    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2258,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2266,7 +2200,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2276,11 +2210,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2290,12 +2219,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2312,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2329,14 +2258,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2345,11 +2274,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2361,13 +2285,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2375,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2383,7 +2307,7 @@
         <v>332284.84529814916</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2391,7 +2315,7 @@
         <v>328698.33561280597</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2399,7 +2323,7 @@
         <v>324961.44290281384</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2407,7 +2331,7 @@
         <v>321058.13291897747</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2415,7 +2339,7 @@
         <v>317343.19811392191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2423,7 +2347,7 @@
         <v>313642.31036664272</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2431,7 +2355,7 @@
         <v>309760.73791796766</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2439,7 +2363,7 @@
         <v>305707.44017239101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2447,7 +2371,7 @@
         <v>301485.71271681401</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2455,7 +2379,7 @@
         <v>296197.57381748687</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2463,7 +2387,7 @@
         <v>291730.01504917309</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2471,7 +2395,7 @@
         <v>287139.90796092403</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2479,7 +2403,7 @@
         <v>282432.5551609947</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2490,11 +2414,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2502,11 +2421,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2514,7 +2433,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2528,7 +2447,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2545,7 +2464,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2562,7 +2481,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2579,7 +2498,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2596,7 +2515,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2613,7 +2532,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2630,7 +2549,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2647,110 +2566,105 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2762,7 +2676,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2772,7 +2686,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2797,7 +2711,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2820,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2843,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2866,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2893,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2916,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2939,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2962,110 +2876,105 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3075,12 +2984,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3100,7 +3009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3120,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>76</v>
       </c>
@@ -3140,7 +3049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3160,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3179,11 +3088,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3193,12 +3097,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3221,7 +3125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3244,7 +3148,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3265,7 +3169,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3288,7 +3192,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3308,34 +3212,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3345,12 +3244,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3373,7 +3272,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3396,7 +3295,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3417,7 +3316,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3440,7 +3339,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3460,34 +3359,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3495,14 +3389,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3525,7 +3419,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3548,7 +3442,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3569,7 +3463,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3592,7 +3486,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3612,413 +3506,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.14</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.73</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1.73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B6" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.52</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B9" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="B10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="2">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.1711</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.36070000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8.5000000000000006E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.2908</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.1048</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
-        <v>0.2258</v>
-      </c>
-      <c r="B2" s="2">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.56979999999999997</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3.03</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.49</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1.41</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.18</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4030,9 +3540,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -4043,7 +3553,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14">
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>41</v>
       </c>
@@ -4059,11 +3569,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4073,9 +3578,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4095,7 +3600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -4115,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -4135,7 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4155,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -4175,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -4195,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4215,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -4235,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -4255,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -4275,7 +3780,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4295,7 +3800,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -4315,7 +3820,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -4335,7 +3840,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4355,7 +3860,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -4375,7 +3880,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -4395,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4415,7 +3920,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4437,11 +3942,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4453,9 +3953,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -4478,7 +3978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4501,7 +4001,7 @@
         <v>25.489558200355106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4521,7 +4021,7 @@
         <v>33.409285701672637</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4541,7 +4041,7 @@
         <v>32.537337077615049</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4561,7 +4061,7 @@
         <v>8.4317600749960331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4584,7 +4084,7 @@
         <v>47.765627255233817</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4604,7 +4104,7 @@
         <v>37.506933607530364</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4624,7 +4124,7 @@
         <v>12.551078417261834</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4644,7 +4144,7 @@
         <v>2.0290173602528188</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4667,7 +4167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4687,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4707,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4732,11 +4232,6 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4746,9 +4241,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4759,7 +4254,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4772,11 +4267,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4786,9 +4276,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4811,7 +4301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4834,7 +4324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4854,7 +4344,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4874,7 +4364,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4894,7 +4384,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4917,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +4427,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4957,7 +4447,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4977,7 +4467,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5000,7 +4490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5020,7 +4510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5040,7 +4530,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5060,7 +4550,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5083,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5103,7 +4593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5123,7 +4613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5143,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5166,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5186,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5206,7 +4696,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5228,11 +4718,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5242,9 +4727,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5267,7 +4752,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5290,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -5310,7 +4795,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -5330,7 +4815,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -5350,7 +4835,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -5373,7 +4858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -5393,7 +4878,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -5413,7 +4898,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -5433,7 +4918,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -5456,7 +4941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -5476,7 +4961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -5496,7 +4981,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5516,7 +5001,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5539,7 +5024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5559,7 +5044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5579,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5599,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5622,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5642,7 +5127,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5662,7 +5147,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5684,11 +5169,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5698,12 +5178,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5726,7 +5206,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5749,7 +5229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5769,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5789,7 +5269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5809,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5832,7 +5312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5852,7 +5332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5872,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5892,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5915,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5935,7 +5415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5955,7 +5435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5975,7 +5455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5998,7 +5478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -6018,7 +5498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -6038,7 +5518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -6058,7 +5538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -6081,7 +5561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -6101,7 +5581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -6121,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -6141,7 +5621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6164,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -6184,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -6204,7 +5684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -6224,7 +5704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -6247,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -6267,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -6287,7 +5767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -6309,10 +5789,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input_spreadsheets/Bangladesh/subregionSpreadsheets/Khulna.xlsx
+++ b/input_spreadsheets/Bangladesh/subregionSpreadsheets/Khulna.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27224"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/discworld/Documents/Research/Health/Optima/Nutrition/development/Nutrition/input_spreadsheets/Bangladesh/subregionSpreadsheets/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-6660" yWindow="-16060" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="22" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -38,13 +33,13 @@
     <sheet name="Interventions mortality eff" sheetId="24" r:id="rId24"/>
     <sheet name="Interventions incidence eff" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -1264,16 +1259,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1289,7 +1284,7 @@
         <v>1637110.041754826</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1297,7 +1292,7 @@
         <v>335747.21468471672</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1305,24 +1300,29 @@
         <v>385892.59300591057</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
-        <v>0.31900000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>0.35299999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1332,13 +1332,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1374,7 +1374,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1393,7 +1393,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1412,7 +1412,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -1431,7 +1431,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1469,7 +1469,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>54</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1507,112 +1507,117 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1624,9 +1629,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1640,7 +1645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>11.2</v>
       </c>
@@ -1656,6 +1661,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1667,9 +1677,9 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1709,7 +1719,7 @@
         <v>1.2232911392405064</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1731,6 +1741,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1740,12 +1755,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
@@ -1765,7 +1780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1785,7 +1800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1805,7 +1820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -1825,7 +1840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -1847,6 +1862,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1856,9 +1876,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
@@ -1878,7 +1898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -1900,6 +1920,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1909,9 +1934,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -1925,7 +1950,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1941,6 +1966,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1950,12 +1980,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -1975,7 +2005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -1995,7 +2025,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2003,7 +2033,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2011,7 +2041,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -2021,6 +2051,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2030,12 +2065,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
@@ -2055,7 +2090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>60</v>
       </c>
@@ -2075,7 +2110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>61</v>
       </c>
@@ -2095,7 +2130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>62</v>
       </c>
@@ -2115,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>63</v>
       </c>
@@ -2137,6 +2172,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2146,13 +2186,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2172,7 +2212,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="14">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2192,7 +2232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -2200,7 +2240,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2210,6 +2250,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2219,12 +2264,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -2241,7 +2286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -2258,14 +2303,14 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -2274,6 +2319,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2285,13 +2335,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2299,7 +2349,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>2017</v>
       </c>
@@ -2307,7 +2357,7 @@
         <v>332284.84529814916</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5">
         <v>2018</v>
       </c>
@@ -2315,7 +2365,7 @@
         <v>328698.33561280597</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>2019</v>
       </c>
@@ -2323,7 +2373,7 @@
         <v>324961.44290281384</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5">
         <v>2020</v>
       </c>
@@ -2331,7 +2381,7 @@
         <v>321058.13291897747</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5">
         <v>2021</v>
       </c>
@@ -2339,7 +2389,7 @@
         <v>317343.19811392191</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5">
         <v>2022</v>
       </c>
@@ -2347,7 +2397,7 @@
         <v>313642.31036664272</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5">
         <v>2023</v>
       </c>
@@ -2355,7 +2405,7 @@
         <v>309760.73791796766</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>2024</v>
       </c>
@@ -2363,7 +2413,7 @@
         <v>305707.44017239101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>2025</v>
       </c>
@@ -2371,7 +2421,7 @@
         <v>301485.71271681401</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>2026</v>
       </c>
@@ -2379,7 +2429,7 @@
         <v>296197.57381748687</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>2027</v>
       </c>
@@ -2387,7 +2437,7 @@
         <v>291730.01504917309</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>2028</v>
       </c>
@@ -2395,7 +2445,7 @@
         <v>287139.90796092403</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5">
         <v>2029</v>
       </c>
@@ -2403,7 +2453,7 @@
         <v>282432.5551609947</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="5">
         <v>2030</v>
       </c>
@@ -2414,6 +2464,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2425,7 +2480,7 @@
       <selection activeCell="B8" sqref="B5:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2433,7 +2488,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2447,7 +2502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2464,7 +2519,7 @@
       <c r="F2" s="13"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2481,7 +2536,7 @@
       <c r="F3" s="13"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2498,7 +2553,7 @@
       <c r="F4" s="13"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2515,7 +2570,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2532,7 +2587,7 @@
       <c r="F6" s="13"/>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2549,7 +2604,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2566,105 +2621,110 @@
       <c r="F8" s="13"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2676,7 +2736,7 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -2686,7 +2746,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -2711,7 +2771,7 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -2734,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>68</v>
       </c>
@@ -2757,7 +2817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>69</v>
       </c>
@@ -2780,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -2789,25 +2849,25 @@
       </c>
       <c r="C5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="E5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F5" s="5">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="G5" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
@@ -2830,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2853,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>72</v>
       </c>
@@ -2876,105 +2936,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2984,12 +3049,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>57</v>
       </c>
@@ -3009,7 +3074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -3029,27 +3094,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="D3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="E3" s="14">
         <f>demographics!$B$5</f>
-        <v>0.31900000000000001</v>
+        <v>0.35299999999999998</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>72</v>
       </c>
@@ -3069,7 +3134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>76</v>
       </c>
@@ -3088,6 +3153,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3097,12 +3167,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3125,7 +3195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3148,7 +3218,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3169,7 +3239,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3192,7 +3262,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3212,29 +3282,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3244,12 +3319,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3272,7 +3347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3295,7 +3370,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3316,7 +3391,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3339,7 +3414,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3359,29 +3434,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3389,14 +3469,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="23.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -3419,7 +3499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>58</v>
       </c>
@@ -3442,7 +3522,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>26</v>
@@ -3463,7 +3543,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>68</v>
       </c>
@@ -3486,7 +3566,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -3506,29 +3586,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3540,9 +3625,9 @@
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
@@ -3553,7 +3638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14">
       <c r="A2" s="7">
         <v>41</v>
       </c>
@@ -3569,6 +3654,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3578,9 +3668,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -3600,7 +3690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -3620,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3640,7 +3730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -3660,7 +3750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -3680,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3700,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -3720,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3740,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -3780,7 +3870,7 @@
         <v>0.14810000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3800,7 +3890,7 @@
         <v>0.2883</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3820,7 +3910,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3840,7 +3930,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3860,7 +3950,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -3880,7 +3970,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -3900,7 +3990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +4010,7 @@
         <v>0.14510000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3942,6 +4032,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3953,9 +4048,9 @@
       <selection activeCell="C10" sqref="C10:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -3978,7 +4073,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>36</v>
       </c>
@@ -4001,7 +4096,7 @@
         <v>25.489558200355106</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4021,7 +4116,7 @@
         <v>33.409285701672637</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4041,7 +4136,7 @@
         <v>32.537337077615049</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4061,7 +4156,7 @@
         <v>8.4317600749960331</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>41</v>
       </c>
@@ -4084,7 +4179,7 @@
         <v>47.765627255233817</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4104,7 +4199,7 @@
         <v>37.506933607530364</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4124,7 +4219,7 @@
         <v>12.551078417261834</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4144,7 +4239,7 @@
         <v>2.0290173602528188</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>42</v>
       </c>
@@ -4167,7 +4262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -4187,7 +4282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -4207,7 +4302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4232,6 +4327,11 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4241,9 +4341,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>47</v>
       </c>
@@ -4254,7 +4354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>3.1099999999999999E-2</v>
       </c>
@@ -4267,6 +4367,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4276,9 +4381,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4324,7 +4429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4344,7 +4449,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4364,7 +4469,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4384,7 +4489,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4407,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4427,7 +4532,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4447,7 +4552,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4467,7 +4572,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4490,7 +4595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4510,7 +4615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4530,7 +4635,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -4550,7 +4655,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -4573,7 +4678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -4593,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -4613,7 +4718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -4633,7 +4738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -4656,7 +4761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -4676,7 +4781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -4696,7 +4801,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -4718,6 +4823,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4727,9 +4837,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4752,7 +4862,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -4775,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
@@ -4795,7 +4905,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
@@ -4815,7 +4925,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
@@ -4835,7 +4945,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -4858,7 +4968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
@@ -4878,7 +4988,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>39</v>
       </c>
@@ -4898,7 +5008,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>40</v>
       </c>
@@ -4918,7 +5028,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -4941,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
@@ -4961,7 +5071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4981,7 +5091,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
@@ -5001,7 +5111,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -5024,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5044,7 +5154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>39</v>
       </c>
@@ -5064,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>40</v>
       </c>
@@ -5084,7 +5194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -5107,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
@@ -5127,7 +5237,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -5147,7 +5257,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
@@ -5169,6 +5279,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5178,12 +5293,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5206,7 +5321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -5229,7 +5344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
@@ -5249,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
@@ -5269,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="2" t="s">
         <v>46</v>
       </c>
@@ -5289,7 +5404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -5312,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>44</v>
       </c>
@@ -5332,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
@@ -5352,7 +5467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
@@ -5372,7 +5487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5395,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
@@ -5415,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
@@ -5435,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="2" t="s">
         <v>46</v>
       </c>
@@ -5455,7 +5570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -5478,7 +5593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
@@ -5498,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
@@ -5518,7 +5633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="2" t="s">
         <v>46</v>
       </c>
@@ -5538,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -5561,7 +5676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
@@ -5581,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
@@ -5601,7 +5716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
         <v>46</v>
       </c>
@@ -5621,7 +5736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -5644,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
@@ -5664,7 +5779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
@@ -5684,7 +5799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -5704,7 +5819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -5727,7 +5842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
         <v>44</v>
       </c>
@@ -5747,7 +5862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="2" t="s">
         <v>45</v>
       </c>
@@ -5767,7 +5882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="2" t="s">
         <v>46</v>
       </c>
@@ -5789,5 +5904,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>